--- a/Stückliste.xlsx
+++ b/Stückliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\Studium Dokumente\6. Semester\MSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5594CA-A802-4994-96C6-EA3E200BA19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5E108A-0218-4379-8FB6-23D43F32AC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0D6A087F-E24C-4335-966E-CCA0F0356A79}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{0D6A087F-E24C-4335-966E-CCA0F0356A79}"/>
   </bookViews>
   <sheets>
     <sheet name="Stückliste " sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Kosten</t>
   </si>
   <si>
-    <t>ESP D1 mini</t>
-  </si>
-  <si>
     <t>URL Link</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>Warm bis Kalt weiß</t>
   </si>
   <si>
-    <t>https://www.amazon.de/Schaltnetzteil-LED-Netzteil-24V-MeanWell-RS-50-24/dp/B00MWQDK6Q?source=ps-sl-shoppingads-lpcontext&amp;ref_=fplfs&amp;smid=A3JWKAKR8XB7XF&amp;language=de_DE&amp;gQT=1&amp;th=1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Netzteil für Stromversorgung </t>
   </si>
   <si>
@@ -140,15 +134,82 @@
     <t>ATTINY</t>
   </si>
   <si>
-    <t>https://de.aliexpress.com/item/1005006716963141.html?aff_fcid=869616cc567047ef81c29a7bc04ac15b-1742239472785-04558-_DDtsuuH&amp;tt=CPS_NORMAL&amp;aff_fsk=_DDtsuuH&amp;aff_platform=shareComponent-detail&amp;sk=_DDtsuuH&amp;aff_trace_key=869616cc567047ef81c29a7bc04ac15b-1742239472785-04558-_DDtsuuH&amp;terminal_id=a0678d02f64946588bf5d7ec15c0d6d4&amp;afSmartRedirect=y</t>
+    <t>Im Labor vorhanden</t>
+  </si>
+  <si>
+    <t>Binghe</t>
+  </si>
+  <si>
+    <t>ESP32-D0WDQ6</t>
+  </si>
+  <si>
+    <t>B0D8635YZ6</t>
+  </si>
+  <si>
+    <t>Händler</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/de/de/shop/produkt/8-bit-attiny_avr-risc_mikrocontroller_8_kb_20_mhz_dip-8-69299</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/Schaltnetzteil-LED-Netzteil-24V-MeanWell-RS-50-24/dp/B00MWQDK6Q?source=ps-sl-shoppingads-lpcontext&amp;ref_=fplfs&amp;smid=A3JWKAKR8XB7XF&amp;language=de_DE&amp;gQT=1&amp;th=1 ; https://ledsone.de/products/led-netzteil-schaltnetzteil-24v-dc-2a-48w-ip20-transformator?srsltid=AfmBOor0s8GTJj71WJdWiq6xI1LF64OIJId-qHgXTt1AidwSIfLJ6XU63ko&amp;gQT=1</t>
+  </si>
+  <si>
+    <t>APKLVSR</t>
+  </si>
+  <si>
+    <t>B0D1K83XRZ</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/APKLVSR-DC-DC-Converter-Power-Supply/dp/B0D1K83XRZ?source=ps-sl-shoppingads-lpcontext&amp;ref_=fplfs&amp;psc=1&amp;smid=AE3E5WPQSSR6E</t>
+  </si>
+  <si>
+    <t>DC DC Converter</t>
+  </si>
+  <si>
+    <t>Gerui</t>
+  </si>
+  <si>
+    <t>‎ B0D3WN41FS</t>
+  </si>
+  <si>
+    <t>Reichelt</t>
+  </si>
+  <si>
+    <t>MICROCHIP</t>
+  </si>
+  <si>
+    <t>9900000692995</t>
+  </si>
+  <si>
+    <t>MEAN WELL</t>
+  </si>
+  <si>
+    <t>B00MWQDK6Q</t>
+  </si>
+  <si>
+    <t>B0BGPDMWP9</t>
+  </si>
+  <si>
+    <t>DollaTek</t>
+  </si>
+  <si>
+    <t>BTF-LIGHTING</t>
+  </si>
+  <si>
+    <t>B0BN7DVSC2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -175,12 +236,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,19 +259,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Komma" xfId="3" builtinId="3"/>
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="1" builtinId="4"/>
@@ -539,196 +610,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFFD9F9-F648-4A41-A0BE-0A60EB92E8D3}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="83.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="83.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>15.99</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <f>1.6*10</f>
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>16.3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>9.59</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9.99</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
-        <v>15.99</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F9" s="3"/>
+      <c r="G9" s="1"/>
+      <c r="H9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3">
-        <v>11.49</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3">
-        <v>16.3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="G6" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>8.99</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="3">
-        <v>9.99</v>
-      </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E9" s="3"/>
-      <c r="F9" s="1"/>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="1" t="s">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>39.99</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3">
-        <v>8.99</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2">
-        <v>39.99</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E15" s="4">
-        <f>SUM(E2:E12)</f>
-        <v>102.75</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F15" s="4">
+        <f>SUM(F2:F12)</f>
+        <v>116.85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" display="https://www.amazon.de/DollaTek-5-teiliges-Mini-Bewegungssensor-Detektormodul-Pyroelektrischer-Infrarot-PIR-Kit-Sensorschalter/dp/B0BGPDMWP9/ref=asc_df_B0BGPDMWP9?mcid=15190ea5228835fda505060a220d8dc2&amp;th=1&amp;psc=1&amp;tag=googshopde-21&amp;linkCode=df0&amp;hvadid=696956227560&amp;hvpos=&amp;hvnetw=g&amp;hvrand=5869019629816934122&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=m&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9042419&amp;hvtargid=pla-2197278813035&amp;psc=1&amp;gad_source=1" xr:uid="{CF14E391-6148-4E12-8BFE-5F9AFF9D925B}"/>
-    <hyperlink ref="F12" r:id="rId2" xr:uid="{0E793EA1-CE27-4388-ACE9-83CAD34009AC}"/>
-    <hyperlink ref="F2" r:id="rId3" display="https://www.amazon.de/Entwicklungsplatine-Binghe-ESP-WROOM-32-Bluetooth-kompatibel/dp/B0D8635YZ6/ref=sr_1_10?dib=eyJ2IjoiMSJ9.2-ottk631jCQ5MK4rDMpWOe41AHMgaFUOGRpMaTkSJ7iIza9E44uwfcJ5YO1GxaKK7EZj9tj5fZbgtjc-UrQSBRTNfWiBDGPt3wJAPjR9gtVXATpkMgZI6Pr7Jvh0MAaW4cK3ggyVvwiam8bzUPG2loP1YVQVUPCLd8q9apTVitDRFSDVo_NQDgEHT0R7BG1M9sctDwz1SsoUG6bIQFlkKL21AQs9pH_q_jCbVDeGZQ.5eTaz0CRyGW85APIF2YzeYSlBUGhnbNu-4-3pEZuIAE&amp;dib_tag=se&amp;keywords=esp32&amp;qid=1742206497&amp;sr=8-10" xr:uid="{A1B08425-D5AA-4730-879A-41A45F83FC99}"/>
-    <hyperlink ref="F10" r:id="rId4" xr:uid="{04A503FF-B914-4F28-AB0C-2E625274E75E}"/>
-    <hyperlink ref="F13" r:id="rId5" xr:uid="{D64DE054-9D81-4320-849A-6D4C59B336F2}"/>
-    <hyperlink ref="F3" r:id="rId6" display="https://de.aliexpress.com/item/1005006716963141.html?aff_fcid=869616cc567047ef81c29a7bc04ac15b-1742239472785-04558-_DDtsuuH&amp;tt=CPS_NORMAL&amp;aff_fsk=_DDtsuuH&amp;aff_platform=shareComponent-detail&amp;sk=_DDtsuuH&amp;aff_trace_key=869616cc567047ef81c29a7bc04ac15b-1742239472785-04558-_DDtsuuH&amp;terminal_id=a0678d02f64946588bf5d7ec15c0d6d4&amp;afSmartRedirect=y" xr:uid="{30723FAE-19EB-423D-BA4F-3DE3BF3E071F}"/>
+    <hyperlink ref="G11" r:id="rId1" display="https://www.amazon.de/DollaTek-5-teiliges-Mini-Bewegungssensor-Detektormodul-Pyroelektrischer-Infrarot-PIR-Kit-Sensorschalter/dp/B0BGPDMWP9/ref=asc_df_B0BGPDMWP9?mcid=15190ea5228835fda505060a220d8dc2&amp;th=1&amp;psc=1&amp;tag=googshopde-21&amp;linkCode=df0&amp;hvadid=696956227560&amp;hvpos=&amp;hvnetw=g&amp;hvrand=5869019629816934122&amp;hvpone=&amp;hvptwo=&amp;hvqmt=&amp;hvdev=m&amp;hvdvcmdl=&amp;hvlocint=&amp;hvlocphy=9042419&amp;hvtargid=pla-2197278813035&amp;psc=1&amp;gad_source=1" xr:uid="{CF14E391-6148-4E12-8BFE-5F9AFF9D925B}"/>
+    <hyperlink ref="G12" r:id="rId2" xr:uid="{0E793EA1-CE27-4388-ACE9-83CAD34009AC}"/>
+    <hyperlink ref="G2" r:id="rId3" display="https://www.amazon.de/Entwicklungsplatine-Binghe-ESP-WROOM-32-Bluetooth-kompatibel/dp/B0D8635YZ6/ref=sr_1_10?dib=eyJ2IjoiMSJ9.2-ottk631jCQ5MK4rDMpWOe41AHMgaFUOGRpMaTkSJ7iIza9E44uwfcJ5YO1GxaKK7EZj9tj5fZbgtjc-UrQSBRTNfWiBDGPt3wJAPjR9gtVXATpkMgZI6Pr7Jvh0MAaW4cK3ggyVvwiam8bzUPG2loP1YVQVUPCLd8q9apTVitDRFSDVo_NQDgEHT0R7BG1M9sctDwz1SsoUG6bIQFlkKL21AQs9pH_q_jCbVDeGZQ.5eTaz0CRyGW85APIF2YzeYSlBUGhnbNu-4-3pEZuIAE&amp;dib_tag=se&amp;keywords=esp32&amp;qid=1742206497&amp;sr=8-10" xr:uid="{A1B08425-D5AA-4730-879A-41A45F83FC99}"/>
+    <hyperlink ref="G10" r:id="rId4" xr:uid="{04A503FF-B914-4F28-AB0C-2E625274E75E}"/>
+    <hyperlink ref="G13" r:id="rId5" xr:uid="{D64DE054-9D81-4320-849A-6D4C59B336F2}"/>
+    <hyperlink ref="G3" r:id="rId6" xr:uid="{30723FAE-19EB-423D-BA4F-3DE3BF3E071F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>